--- a/定稿发送1/发送定稿1.xlsx
+++ b/定稿发送1/发送定稿1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155">
   <si>
     <t xml:space="preserve">                               高木智能学习平台七年级、八年级寒假班型课程表（含提高班、培优班）</t>
   </si>
@@ -88,6 +88,9 @@
     <t>栾天</t>
   </si>
   <si>
+    <t>提高班（70%）</t>
+  </si>
+  <si>
     <t>二元一次方程组（3）</t>
   </si>
   <si>
@@ -173,6 +176,9 @@
   </si>
   <si>
     <t>4（20%）</t>
+  </si>
+  <si>
+    <t>已完成</t>
   </si>
   <si>
     <t>9（80%）</t>
@@ -649,6 +655,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -656,7 +663,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -703,12 +709,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -721,13 +721,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,7 +751,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,12 +763,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -781,7 +781,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,6 +811,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -817,7 +859,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,48 +878,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,10 +996,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,127 +1008,127 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1553,8 +1559,8 @@
   <sheetPr/>
   <dimension ref="A1:M146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="21.95" customHeight="1"/>
@@ -1683,7 +1689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:12">
+    <row r="7" customHeight="1" spans="1:13">
       <c r="A7" s="10"/>
       <c r="B7" s="10">
         <v>4</v>
@@ -1702,6 +1708,9 @@
       </c>
       <c r="L7" s="6" t="s">
         <v>23</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
@@ -1710,10 +1719,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="13"/>
     </row>
@@ -1723,10 +1732,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="13"/>
     </row>
@@ -1736,10 +1745,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="13"/>
     </row>
@@ -1749,10 +1758,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>18</v>
@@ -1764,17 +1773,17 @@
         <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="13"/>
       <c r="J12" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:8">
@@ -1783,10 +1792,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" s="13"/>
     </row>
@@ -1796,10 +1805,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>18</v>
@@ -1811,10 +1820,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H15" s="13"/>
     </row>
@@ -1824,10 +1833,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H16" s="13"/>
     </row>
@@ -1837,10 +1846,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H17" s="13"/>
     </row>
@@ -1850,10 +1859,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" s="13"/>
     </row>
@@ -1863,10 +1872,10 @@
         <v>16</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H19" s="13"/>
     </row>
@@ -1886,7 +1895,7 @@
     </row>
     <row r="21" customHeight="1" spans="1:8">
       <c r="A21" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" s="10">
         <v>17</v>
@@ -1934,13 +1943,13 @@
         <v>18</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:13">
       <c r="A24" s="10"/>
       <c r="B24" s="10">
         <v>20</v>
@@ -1958,10 +1967,13 @@
         <v>18</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>23</v>
+      </c>
+      <c r="M24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:4">
@@ -1970,10 +1982,10 @@
         <v>21</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:4">
@@ -1982,10 +1994,10 @@
         <v>22</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:4">
@@ -1994,10 +2006,10 @@
         <v>23</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:4">
@@ -2006,31 +2018,34 @@
         <v>24</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:13">
       <c r="A29" s="10"/>
       <c r="B29" s="10">
         <v>25</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>23</v>
+      </c>
+      <c r="M29" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:4">
@@ -2039,10 +2054,10 @@
         <v>26</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:4">
@@ -2051,10 +2066,10 @@
         <v>27</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:4">
@@ -2063,10 +2078,10 @@
         <v>28</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:4">
@@ -2075,10 +2090,10 @@
         <v>29</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:4">
@@ -2087,10 +2102,10 @@
         <v>30</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:4">
@@ -2099,10 +2114,10 @@
         <v>31</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
@@ -2111,10 +2126,10 @@
         <v>32</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="1:12">
@@ -2132,16 +2147,16 @@
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" s="10">
         <v>33</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:4">
@@ -2150,10 +2165,10 @@
         <v>34</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:4">
@@ -2162,10 +2177,10 @@
         <v>35</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:10">
@@ -2174,16 +2189,16 @@
         <v>36</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J41" s="23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:4">
@@ -2192,10 +2207,10 @@
         <v>37</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:4">
@@ -2204,10 +2219,10 @@
         <v>38</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:4">
@@ -2216,10 +2231,10 @@
         <v>39</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:4">
@@ -2228,10 +2243,10 @@
         <v>40</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:4">
@@ -2240,10 +2255,10 @@
         <v>41</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:4">
@@ -2252,10 +2267,10 @@
         <v>42</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:4">
@@ -2264,10 +2279,10 @@
         <v>43</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:4">
@@ -2276,10 +2291,10 @@
         <v>44</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:4">
@@ -2288,10 +2303,10 @@
         <v>45</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:4">
@@ -2300,10 +2315,10 @@
         <v>46</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:4">
@@ -2312,10 +2327,10 @@
         <v>47</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:4">
@@ -2324,10 +2339,10 @@
         <v>48</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:4">
@@ -2336,10 +2351,10 @@
         <v>49</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:4">
@@ -2348,10 +2363,10 @@
         <v>50</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:4">
@@ -2360,10 +2375,10 @@
         <v>51</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" customHeight="1" spans="1:12">
@@ -2382,16 +2397,16 @@
     </row>
     <row r="58" customHeight="1" spans="1:4">
       <c r="A58" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B58" s="10">
         <v>52</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:4">
@@ -2400,10 +2415,10 @@
         <v>53</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:4">
@@ -2412,10 +2427,10 @@
         <v>54</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:12">
@@ -2424,19 +2439,19 @@
         <v>55</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J61" s="23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:4">
@@ -2445,10 +2460,10 @@
         <v>56</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:4">
@@ -2457,10 +2472,10 @@
         <v>57</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:4">
@@ -2469,10 +2484,10 @@
         <v>58</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:4">
@@ -2481,10 +2496,10 @@
         <v>59</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:4">
@@ -2493,10 +2508,10 @@
         <v>60</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:4">
@@ -2505,10 +2520,10 @@
         <v>61</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:4">
@@ -2517,10 +2532,10 @@
         <v>62</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:4">
@@ -2529,10 +2544,10 @@
         <v>63</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:4">
@@ -2541,10 +2556,10 @@
         <v>64</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:4">
@@ -2553,10 +2568,10 @@
         <v>65</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:4">
@@ -2565,10 +2580,10 @@
         <v>66</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:4">
@@ -2577,10 +2592,10 @@
         <v>67</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:4">
@@ -2589,10 +2604,10 @@
         <v>68</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:4">
@@ -2601,10 +2616,10 @@
         <v>69</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:4">
@@ -2613,10 +2628,10 @@
         <v>70</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:3">
@@ -2639,16 +2654,16 @@
     </row>
     <row r="79" customHeight="1" spans="1:4">
       <c r="A79" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B79" s="10">
         <v>71</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:4">
@@ -2657,10 +2672,10 @@
         <v>72</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:4">
@@ -2669,10 +2684,10 @@
         <v>73</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:4">
@@ -2681,10 +2696,10 @@
         <v>74</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:4">
@@ -2693,10 +2708,10 @@
         <v>75</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:4">
@@ -2705,10 +2720,10 @@
         <v>76</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:4">
@@ -2717,10 +2732,10 @@
         <v>77</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:4">
@@ -2729,10 +2744,10 @@
         <v>78</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:4">
@@ -2741,10 +2756,10 @@
         <v>79</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:4">
@@ -2753,10 +2768,10 @@
         <v>80</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:4">
@@ -2765,10 +2780,10 @@
         <v>81</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:4">
@@ -2777,10 +2792,10 @@
         <v>82</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:4">
@@ -2789,10 +2804,10 @@
         <v>83</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:4">
@@ -2801,10 +2816,10 @@
         <v>84</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="1" customHeight="1" spans="1:12">
@@ -2823,16 +2838,16 @@
     </row>
     <row r="94" customHeight="1" spans="1:4">
       <c r="A94" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B94" s="10">
         <v>85</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:4">
@@ -2841,10 +2856,10 @@
         <v>86</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:4">
@@ -2853,10 +2868,10 @@
         <v>87</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:4">
@@ -2865,10 +2880,10 @@
         <v>88</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:4">
@@ -2877,10 +2892,10 @@
         <v>89</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:4">
@@ -2889,10 +2904,10 @@
         <v>90</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:4">
@@ -2901,10 +2916,10 @@
         <v>91</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:4">
@@ -2913,10 +2928,10 @@
         <v>92</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:4">
@@ -2925,10 +2940,10 @@
         <v>93</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:4">
@@ -2937,10 +2952,10 @@
         <v>94</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:4">
@@ -2949,10 +2964,10 @@
         <v>95</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="1:4">
@@ -2961,10 +2976,10 @@
         <v>96</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="1:4">
@@ -2973,10 +2988,10 @@
         <v>97</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="1:4">
@@ -2985,10 +3000,10 @@
         <v>98</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" s="2" customFormat="1" customHeight="1" spans="1:12">
@@ -3006,16 +3021,16 @@
     </row>
     <row r="109" customHeight="1" spans="1:4">
       <c r="A109" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B109" s="10">
         <v>99</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="1:4">
@@ -3024,10 +3039,10 @@
         <v>100</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:4">
@@ -3036,10 +3051,10 @@
         <v>101</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="1:4">
@@ -3048,10 +3063,10 @@
         <v>102</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="1:4">
@@ -3060,10 +3075,10 @@
         <v>103</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="1:4">
@@ -3072,10 +3087,10 @@
         <v>104</v>
       </c>
       <c r="C114" s="27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:4">
@@ -3084,10 +3099,10 @@
         <v>105</v>
       </c>
       <c r="C115" s="27" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D115" s="28" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="1:4">
@@ -3096,10 +3111,10 @@
         <v>106</v>
       </c>
       <c r="C116" s="27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D116" s="28" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="1:4">
@@ -3108,10 +3123,10 @@
         <v>107</v>
       </c>
       <c r="C117" s="27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="1:4">
@@ -3120,10 +3135,10 @@
         <v>108</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="1:4">
@@ -3132,10 +3147,10 @@
         <v>109</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="1:4">
@@ -3144,10 +3159,10 @@
         <v>110</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="1:4">
@@ -3156,10 +3171,10 @@
         <v>111</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:4">
@@ -3168,10 +3183,10 @@
         <v>112</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="1:4">
@@ -3180,10 +3195,10 @@
         <v>113</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="1:4">
@@ -3192,10 +3207,10 @@
         <v>114</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="125" s="4" customFormat="1" customHeight="1" spans="1:12">
@@ -3214,16 +3229,16 @@
     </row>
     <row r="126" customHeight="1" spans="1:4">
       <c r="A126" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B126" s="10">
         <v>115</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="1:4">
@@ -3232,10 +3247,10 @@
         <v>116</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="1:4">
@@ -3244,10 +3259,10 @@
         <v>117</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="1:4">
@@ -3256,10 +3271,10 @@
         <v>118</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="1:4">
@@ -3268,10 +3283,10 @@
         <v>119</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="1:4">
@@ -3280,10 +3295,10 @@
         <v>120</v>
       </c>
       <c r="C131" s="27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D131" s="28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:4">
@@ -3292,10 +3307,10 @@
         <v>121</v>
       </c>
       <c r="C132" s="27" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D132" s="28" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:4">
@@ -3304,10 +3319,10 @@
         <v>122</v>
       </c>
       <c r="C133" s="27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D133" s="28" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:4">
@@ -3316,10 +3331,10 @@
         <v>123</v>
       </c>
       <c r="C134" s="27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D134" s="28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="1:4">
@@ -3328,10 +3343,10 @@
         <v>124</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="1:4">
@@ -3340,10 +3355,10 @@
         <v>125</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D136" s="28" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="1:4">
@@ -3352,10 +3367,10 @@
         <v>126</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="1:4">
@@ -3364,10 +3379,10 @@
         <v>127</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="1:4">
@@ -3376,10 +3391,10 @@
         <v>128</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="1:4">
@@ -3388,10 +3403,10 @@
         <v>129</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:4">
@@ -3400,10 +3415,10 @@
         <v>130</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="2:2">
